--- a/Data/model_inputs.xlsx
+++ b/Data/model_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cumccolumbia-my.sharepoint.com/personal/ao2696_cumc_columbia_edu/Documents/Lynch Syndrome/Model/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2868\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{81CBC7B3-33E1-3746-A70C-BF555F6C092D}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95F20CE9-E421-4C8A-8F84-AF30F381D13E}"/>
   <bookViews>
-    <workbookView xWindow="39760" yWindow="5780" windowWidth="14800" windowHeight="8020" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39765" yWindow="5775" windowWidth="14805" windowHeight="8025" firstSheet="22" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLH1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,19 @@
     <sheet name="Stage Dists" sheetId="13" r:id="rId10"/>
     <sheet name="Misc" sheetId="11" r:id="rId11"/>
     <sheet name="Costs" sheetId="8" r:id="rId12"/>
-    <sheet name="References" sheetId="12" r:id="rId13"/>
+    <sheet name="MLH1_Adenoma" sheetId="14" r:id="rId13"/>
+    <sheet name="MSH2_Adenoma" sheetId="15" r:id="rId14"/>
+    <sheet name="MSH6_Adenoma" sheetId="16" r:id="rId15"/>
+    <sheet name="PSM2_Adenoma" sheetId="17" r:id="rId16"/>
+    <sheet name="MLH1_Adv_Adenoma" sheetId="18" r:id="rId17"/>
+    <sheet name="MSH2_Adv_Adenoma" sheetId="19" r:id="rId18"/>
+    <sheet name="MSH6_Adv_Adenoma" sheetId="20" r:id="rId19"/>
+    <sheet name="PMS2_Adv_Adenoma" sheetId="21" r:id="rId20"/>
+    <sheet name="Adenoma_to_CRC_Annual" sheetId="22" r:id="rId21"/>
+    <sheet name="Adv_Adenoma_to_CRC_Annual" sheetId="23" r:id="rId22"/>
+    <sheet name="References" sheetId="12" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -159,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
   <si>
     <t>x</t>
   </si>
@@ -239,6 +249,18 @@
     <t>du_csy_comp</t>
   </si>
   <si>
+    <t>u_death_1</t>
+  </si>
+  <si>
+    <t>u_death_2</t>
+  </si>
+  <si>
+    <t>u_death_3</t>
+  </si>
+  <si>
+    <t>u_death_4</t>
+  </si>
+  <si>
     <t>Weight</t>
   </si>
   <si>
@@ -374,6 +396,36 @@
     <t>weighted average</t>
   </si>
   <si>
+    <t>stage I death</t>
+  </si>
+  <si>
+    <t>stage II death</t>
+  </si>
+  <si>
+    <t>stage III death</t>
+  </si>
+  <si>
+    <t>stage IV death</t>
+  </si>
+  <si>
+    <t>Curve1</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Women</t>
+  </si>
+  <si>
     <t>#</t>
   </si>
   <si>
@@ -465,13 +517,22 @@
   </si>
   <si>
     <t>Engel, C., Vasen, H. F., Seppälä, T., Aretz, S., Bigirwamungu-Bargeman, M., de Boer, S. Y., … Loeffler, M. (2018). No Difference in Colorectal Cancer Incidence or Stage at Detection by Colonoscopy Among 3 Countries With Different Lynch Syndrome Surveillance Policies. Gastroenterology, 155(5), 1400-1409.e2. https://doi.org/10.1053/j.gastro.2018.07.030</t>
+  </si>
+  <si>
+    <t>Brenner, H., Hoffmeister, M., Stegmaier, C., Brenner, G., Altenhofen, L., &amp; Haug, U. (2007). Risk of progression of advanced adenomas to colorectal cancer by age and sex: Estimates based on 840 149 screening colonoscopies. Gut, 56(11), 1585–1589. https://doi.org/10.1136/gut.2007.122739</t>
+  </si>
+  <si>
+    <t>Coleman, H. G., Loughrey, M. B., Murray, L. J., Johnston, B. T., Gavin, A. T., Shrubsole, M. J., Bhat, S. K., Allen, P. B., McConnell, V., &amp; Cantwell, M. M. (2015). Colorectal Cancer Risk Following Adenoma Removal: A Large Prospective Population-Based Cohort Study. Cancer Epidemiology Biomarkers &amp; Prevention, 24(9), 1373–1380. https://doi.org/10.1158/1055-9965.EPI-15-0085</t>
+  </si>
+  <si>
+    <t>Schreiner, M. A., Weiss, D. G., &amp; Lieberman, D. A. (2010). Proximal and Large Hyperplastic and Nondysplastic Serrated Polyps Detected by Colonoscopy Are Associated With Neoplasia. Gastroenterology, 139(5), 1497–1502. https://doi.org/10.1053/j.gastro.2010.06.074</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,12 +944,12 @@
       <selection activeCell="C2" sqref="C2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>30</v>
       </c>
@@ -927,7 +988,7 @@
         <v>2.2395</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>35</v>
       </c>
@@ -951,7 +1012,7 @@
         <v>5.2595000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>40</v>
       </c>
@@ -973,7 +1034,7 @@
         <v>10.680999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>45</v>
       </c>
@@ -997,7 +1058,7 @@
         <v>19.382999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1019,7 +1080,7 @@
         <v>33.244</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>55</v>
       </c>
@@ -1043,7 +1104,7 @@
         <v>43.409500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1065,7 +1126,7 @@
         <v>56.399000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>65</v>
       </c>
@@ -1089,7 +1150,7 @@
         <v>65.188999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>70</v>
       </c>
@@ -1123,26 +1184,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1159,7 +1220,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1176,7 +1237,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1193,7 +1254,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1210,7 +1271,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1227,7 +1288,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1257,55 +1318,55 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2">
         <v>0.68</v>
@@ -1318,51 +1379,51 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AD7A83-226D-48BF-9DA9-533A4A1C7896}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>979.14</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>1203</v>
@@ -1371,197 +1432,245 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B4">
         <v>15567.97</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>6021.21</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>383.21</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>6021.21</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>30673</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B9">
         <v>3347.95</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>3150.37</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B11">
         <v>4413.8100000000004</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>13367.67</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>45409.31</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14">
         <v>60945.99</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>73974.720000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>96295.01</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B17">
         <v>4976.47</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18">
+        <f>63809*1.123</f>
+        <v>71657.506999999998</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <f>63555*1.123</f>
+        <v>71372.264999999999</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20">
+        <f>67041*1.123</f>
+        <v>75287.043000000005</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21">
+        <f>88368*1.123</f>
+        <v>99237.263999999996</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1570,264 +1679,1463 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F3B92-9BB5-4E6F-AF71-A90700BDC792}">
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ADA357D-D76F-4FE2-B4DF-E189B006C7F7}">
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="85.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>41.416800000000002</v>
+      </c>
+      <c r="B4">
+        <v>2.331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>42.0901</v>
+      </c>
+      <c r="B5">
+        <v>4.4260000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>42.763399999999997</v>
+      </c>
+      <c r="B6">
+        <v>6.5209999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>43.260100000000001</v>
+      </c>
+      <c r="B7">
+        <v>9.6850000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>44.039900000000003</v>
+      </c>
+      <c r="B8">
+        <v>12.837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
+        <v>44.925699999999999</v>
+      </c>
+      <c r="B9">
+        <v>15.189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>45.563800000000001</v>
+      </c>
+      <c r="B10">
+        <v>17.815999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>46.308399999999999</v>
+      </c>
+      <c r="B11">
+        <v>21.234000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>47.371400000000001</v>
+      </c>
+      <c r="B12">
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>48.009399999999999</v>
+      </c>
+      <c r="B13">
+        <v>26.472000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>48.930700000000002</v>
+      </c>
+      <c r="B14">
+        <v>29.353000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>49.887099999999997</v>
+      </c>
+      <c r="B15">
+        <v>31.172000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>50.843699999999998</v>
+      </c>
+      <c r="B16">
+        <v>33.521000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>51.517600000000002</v>
+      </c>
+      <c r="B17">
+        <v>37.207999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>52.368200000000002</v>
+      </c>
+      <c r="B18">
+        <v>40.091000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>53.112099999999998</v>
+      </c>
+      <c r="B19">
+        <v>41.652999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>54.068399999999997</v>
+      </c>
+      <c r="B20">
+        <v>43.207000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>54.9893</v>
+      </c>
+      <c r="B21">
+        <v>44.762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>55.945599999999999</v>
+      </c>
+      <c r="B22">
+        <v>46.314999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>56.547899999999998</v>
+      </c>
+      <c r="B23">
+        <v>47.883000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>57.3628</v>
+      </c>
+      <c r="B24">
+        <v>49.972000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>58.000799999999998</v>
+      </c>
+      <c r="B25">
+        <v>52.334000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>58.7089</v>
+      </c>
+      <c r="B26">
+        <v>52.570999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>59.169899999999998</v>
+      </c>
+      <c r="B27">
+        <v>54.94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>59.630600000000001</v>
+      </c>
+      <c r="B28">
+        <v>56.512999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>60.020699999999998</v>
+      </c>
+      <c r="B29">
+        <v>58.354999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC49EAA-CB75-4036-AC07-544E749DC381}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>40.6372</v>
+      </c>
+      <c r="B3">
+        <v>1.0469999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>41.274299999999997</v>
+      </c>
+      <c r="B4">
+        <v>4.4870000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>42.194699999999997</v>
+      </c>
+      <c r="B5">
+        <v>10.048</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>43.115000000000002</v>
+      </c>
+      <c r="B6">
+        <v>14.279</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>43.858400000000003</v>
+      </c>
+      <c r="B7">
+        <v>16.919</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>44.955800000000004</v>
+      </c>
+      <c r="B8">
+        <v>21.943000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>45.911499999999997</v>
+      </c>
+      <c r="B9">
+        <v>25.109000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>46.654899999999998</v>
+      </c>
+      <c r="B10">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>47.327399999999997</v>
+      </c>
+      <c r="B11">
+        <v>31.986000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>48.247799999999998</v>
+      </c>
+      <c r="B12">
+        <v>36.482999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>49.522100000000002</v>
+      </c>
+      <c r="B13">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>50.477899999999998</v>
+      </c>
+      <c r="B14">
+        <v>45.466000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>51.1858</v>
+      </c>
+      <c r="B15">
+        <v>48.372999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>52.318600000000004</v>
+      </c>
+      <c r="B16">
+        <v>51.533999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>53.309699999999999</v>
+      </c>
+      <c r="B17">
+        <v>54.965000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>54.265500000000003</v>
+      </c>
+      <c r="B18">
+        <v>57.865000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>55.221200000000003</v>
+      </c>
+      <c r="B19">
+        <v>58.904000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>56.247799999999998</v>
+      </c>
+      <c r="B20">
+        <v>60.472000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+        <v>57.168100000000003</v>
+      </c>
+      <c r="B21">
+        <v>63.905000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>57.946899999999999</v>
+      </c>
+      <c r="B22">
+        <v>67.075999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>59.044199999999996</v>
+      </c>
+      <c r="B23">
+        <v>67.313000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+        <v>59.787599999999998</v>
+      </c>
+      <c r="B24">
+        <v>68.090999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4517DC-8E80-4CA3-8077-EB8EB456556F}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>41.057099999999998</v>
+      </c>
+      <c r="B3">
+        <v>1.577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>41.865400000000001</v>
+      </c>
+      <c r="B4">
+        <v>5.8109999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>42.567700000000002</v>
+      </c>
+      <c r="B5">
+        <v>10.311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>43.234499999999997</v>
+      </c>
+      <c r="B6">
+        <v>15.076000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>43.692500000000003</v>
+      </c>
+      <c r="B7">
+        <v>15.866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>44.149000000000001</v>
+      </c>
+      <c r="B8">
+        <v>18.777999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>44.783000000000001</v>
+      </c>
+      <c r="B9">
+        <v>20.096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>45.732399999999998</v>
+      </c>
+      <c r="B10">
+        <v>24.327000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>46.609900000000003</v>
+      </c>
+      <c r="B11">
+        <v>30.416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>47.526499999999999</v>
+      </c>
+      <c r="B12">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>48.408000000000001</v>
+      </c>
+      <c r="B13">
+        <v>31.719000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>49.217599999999997</v>
+      </c>
+      <c r="B14">
+        <v>34.094999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>50.025100000000002</v>
+      </c>
+      <c r="B15">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>50.799599999999998</v>
+      </c>
+      <c r="B16">
+        <v>41.500999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>51.821800000000003</v>
+      </c>
+      <c r="B17">
+        <v>42.548999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>52.383000000000003</v>
+      </c>
+      <c r="B18">
+        <v>47.051000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>53.192799999999998</v>
+      </c>
+      <c r="B19">
+        <v>49.161999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>54.178100000000001</v>
+      </c>
+      <c r="B20">
+        <v>52.597000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>55.304200000000002</v>
+      </c>
+      <c r="B21">
+        <v>56.295999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>56.75</v>
+      </c>
+      <c r="B22">
+        <v>56.807000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>57.949199999999998</v>
+      </c>
+      <c r="B23">
+        <v>57.055999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>58.757300000000001</v>
+      </c>
+      <c r="B24">
+        <v>61.555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>59.568399999999997</v>
+      </c>
+      <c r="B25">
+        <v>61.808999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2F8542F-2914-4E1C-967B-34D1B6796C04}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>41.057099999999998</v>
+      </c>
+      <c r="B3">
+        <v>1.577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>41.865400000000001</v>
+      </c>
+      <c r="B4">
+        <v>5.8109999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>42.567700000000002</v>
+      </c>
+      <c r="B5">
+        <v>10.311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>43.234499999999997</v>
+      </c>
+      <c r="B6">
+        <v>15.076000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>43.692500000000003</v>
+      </c>
+      <c r="B7">
+        <v>15.866</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>44.149000000000001</v>
+      </c>
+      <c r="B8">
+        <v>18.777999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>44.783000000000001</v>
+      </c>
+      <c r="B9">
+        <v>20.096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>45.732399999999998</v>
+      </c>
+      <c r="B10">
+        <v>24.327000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>46.609900000000003</v>
+      </c>
+      <c r="B11">
+        <v>30.416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>47.526499999999999</v>
+      </c>
+      <c r="B12">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>48.408000000000001</v>
+      </c>
+      <c r="B13">
+        <v>31.719000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>49.217599999999997</v>
+      </c>
+      <c r="B14">
+        <v>34.094999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>50.025100000000002</v>
+      </c>
+      <c r="B15">
+        <v>39.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>50.799599999999998</v>
+      </c>
+      <c r="B16">
+        <v>41.500999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>51.821800000000003</v>
+      </c>
+      <c r="B17">
+        <v>42.548999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>52.383000000000003</v>
+      </c>
+      <c r="B18">
+        <v>47.051000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>53.192799999999998</v>
+      </c>
+      <c r="B19">
+        <v>49.161999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>54.178100000000001</v>
+      </c>
+      <c r="B20">
+        <v>52.597000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>55.304200000000002</v>
+      </c>
+      <c r="B21">
+        <v>56.295999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>56.75</v>
+      </c>
+      <c r="B22">
+        <v>56.807000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>57.949199999999998</v>
+      </c>
+      <c r="B23">
+        <v>57.055999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>58.757300000000001</v>
+      </c>
+      <c r="B24">
+        <v>61.555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>59.568399999999997</v>
+      </c>
+      <c r="B25">
+        <v>61.808999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912360B5-4AF5-49C8-AF80-8191012ABA96}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>43.604199999999999</v>
+      </c>
+      <c r="B4">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>44.734999999999999</v>
+      </c>
+      <c r="B5">
+        <v>2.9329999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>45.971699999999998</v>
+      </c>
+      <c r="B6">
+        <v>4.5330000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>47.385199999999998</v>
+      </c>
+      <c r="B7">
+        <v>5.867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>48.727899999999998</v>
+      </c>
+      <c r="B8">
+        <v>6.6669999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>49.858699999999999</v>
+      </c>
+      <c r="B9">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>51.095399999999998</v>
+      </c>
+      <c r="B10">
+        <v>9.3330000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>52.296799999999998</v>
+      </c>
+      <c r="B11">
+        <v>10.933</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>53.427599999999998</v>
+      </c>
+      <c r="B12">
+        <v>10.933</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>54.593600000000002</v>
+      </c>
+      <c r="B13">
+        <v>11.467000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>55.759700000000002</v>
+      </c>
+      <c r="B14">
+        <v>12.266999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>56.572400000000002</v>
+      </c>
+      <c r="B15">
+        <v>12.532999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>57.597200000000001</v>
+      </c>
+      <c r="B16">
+        <v>14.132999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>58.303899999999999</v>
+      </c>
+      <c r="B17">
+        <v>15.467000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>59.258000000000003</v>
+      </c>
+      <c r="B18">
+        <v>17.067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>59.858699999999999</v>
+      </c>
+      <c r="B19">
+        <v>17.067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E6EEE-3A45-416C-8BA6-C14AA5B38571}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>40.918399999999998</v>
+      </c>
+      <c r="B3">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>41.73</v>
+      </c>
+      <c r="B4">
+        <v>2.0760000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>42.647199999999998</v>
+      </c>
+      <c r="B5">
+        <v>4.1740000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>43.494399999999999</v>
+      </c>
+      <c r="B6">
+        <v>5.4779999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>44.341900000000003</v>
+      </c>
+      <c r="B7">
+        <v>6.2510000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>45.364899999999999</v>
+      </c>
+      <c r="B8">
+        <v>8.6110000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>46.424100000000003</v>
+      </c>
+      <c r="B9">
+        <v>9.9090000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>47.165999999999997</v>
+      </c>
+      <c r="B10">
+        <v>10.154999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>48.0473</v>
+      </c>
+      <c r="B11">
+        <v>13.048999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>48.647100000000002</v>
+      </c>
+      <c r="B12">
+        <v>14.359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>49.493699999999997</v>
+      </c>
+      <c r="B13">
+        <v>16.459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>50.587600000000002</v>
+      </c>
+      <c r="B14">
+        <v>18.552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>51.646599999999999</v>
+      </c>
+      <c r="B15">
+        <v>20.114999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>52.600299999999997</v>
+      </c>
+      <c r="B16">
+        <v>20.620999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>53.5884</v>
+      </c>
+      <c r="B17">
+        <v>22.451000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>54.718000000000004</v>
+      </c>
+      <c r="B18">
+        <v>24.013000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>55.3887</v>
+      </c>
+      <c r="B19">
+        <v>25.056000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>56.024299999999997</v>
+      </c>
+      <c r="B20">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>56.906799999999997</v>
+      </c>
+      <c r="B21">
+        <v>26.872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>57.611699999999999</v>
+      </c>
+      <c r="B22">
+        <v>29.506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>58.140999999999998</v>
+      </c>
+      <c r="B23">
+        <v>30.553000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>58.706299999999999</v>
+      </c>
+      <c r="B24">
+        <v>30.538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>59.306899999999999</v>
+      </c>
+      <c r="B25">
+        <v>30.788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
+        <v>59.906999999999996</v>
+      </c>
+      <c r="B26">
+        <v>31.567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D09359-6D9B-472A-AB0D-87E181C1DB01}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>101</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>41.667299999999997</v>
+      </c>
+      <c r="B4">
+        <v>1.7949999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>42.4833</v>
+      </c>
+      <c r="B5">
+        <v>2.8260000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>43.192599999999999</v>
+      </c>
+      <c r="B6">
+        <v>3.0640000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="B7">
+        <v>5.1440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>45.392400000000002</v>
+      </c>
+      <c r="B8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>46.385399999999997</v>
+      </c>
+      <c r="B9">
+        <v>6.9260000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>47.591200000000001</v>
+      </c>
+      <c r="B10">
+        <v>7.1440000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>48.158900000000003</v>
+      </c>
+      <c r="B11">
+        <v>8.1850000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>49.5777</v>
+      </c>
+      <c r="B12">
+        <v>9.1920000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>50.9253</v>
+      </c>
+      <c r="B13">
+        <v>9.4049999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>52.343699999999998</v>
+      </c>
+      <c r="B14">
+        <v>9.3480000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>53.443100000000001</v>
+      </c>
+      <c r="B15">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>54.578499999999998</v>
+      </c>
+      <c r="B16">
+        <v>11.385999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>55.714199999999998</v>
+      </c>
+      <c r="B17">
+        <v>14.000999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>56.849299999999999</v>
+      </c>
+      <c r="B18">
+        <v>15.019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>57.665100000000002</v>
+      </c>
+      <c r="B19">
+        <v>15.519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>58.338799999999999</v>
+      </c>
+      <c r="B20">
+        <v>15.492000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>59.119</v>
+      </c>
+      <c r="B21">
+        <v>15.461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>59.828200000000002</v>
+      </c>
+      <c r="B22">
+        <v>15.432</v>
       </c>
     </row>
   </sheetData>
@@ -1843,12 +3151,12 @@
       <selection activeCell="B4" sqref="B4:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1865,7 +3173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>30</v>
       </c>
@@ -1884,7 +3192,7 @@
         <v>1.2055</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>35</v>
       </c>
@@ -1903,7 +3211,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>40</v>
       </c>
@@ -1925,7 +3233,7 @@
         <v>5.7714999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>45</v>
       </c>
@@ -1947,7 +3255,7 @@
         <v>10.153500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1967,7 +3275,7 @@
         <v>12.841000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>55</v>
       </c>
@@ -1989,7 +3297,7 @@
         <v>22.8645</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>60</v>
       </c>
@@ -2011,7 +3319,7 @@
         <v>30.052</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>65</v>
       </c>
@@ -2033,7 +3341,7 @@
         <v>37.547499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>70</v>
       </c>
@@ -2058,6 +3366,718 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2BDB007-7B63-4E4C-A9E1-8BEF6D9826A2}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.23200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>41.667299999999997</v>
+      </c>
+      <c r="B4">
+        <v>1.7949999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>42.4833</v>
+      </c>
+      <c r="B5">
+        <v>2.8260000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>43.192599999999999</v>
+      </c>
+      <c r="B6">
+        <v>3.0640000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>44.399000000000001</v>
+      </c>
+      <c r="B7">
+        <v>5.1440000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>45.392400000000002</v>
+      </c>
+      <c r="B8">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>46.385399999999997</v>
+      </c>
+      <c r="B9">
+        <v>6.9260000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>47.591200000000001</v>
+      </c>
+      <c r="B10">
+        <v>7.1440000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>48.158900000000003</v>
+      </c>
+      <c r="B11">
+        <v>8.1850000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>49.5777</v>
+      </c>
+      <c r="B12">
+        <v>9.1920000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>50.9253</v>
+      </c>
+      <c r="B13">
+        <v>9.4049999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>52.343699999999998</v>
+      </c>
+      <c r="B14">
+        <v>9.3480000000000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>53.443100000000001</v>
+      </c>
+      <c r="B15">
+        <v>9.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>54.578499999999998</v>
+      </c>
+      <c r="B16">
+        <v>11.385999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>55.714199999999998</v>
+      </c>
+      <c r="B17">
+        <v>14.000999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>56.849299999999999</v>
+      </c>
+      <c r="B18">
+        <v>15.019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>57.665100000000002</v>
+      </c>
+      <c r="B19">
+        <v>15.519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>58.338799999999999</v>
+      </c>
+      <c r="B20">
+        <v>15.492000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>59.119</v>
+      </c>
+      <c r="B21">
+        <v>15.461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>59.828200000000002</v>
+      </c>
+      <c r="B22">
+        <v>15.432</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CCD98A-C0EB-4C6C-9836-93985E235FAD}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>0.12</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>0.2</v>
+      </c>
+      <c r="C4">
+        <v>0.12</v>
+      </c>
+      <c r="D4">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.26</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>0.41</v>
+      </c>
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>70</v>
+      </c>
+      <c r="B7">
+        <v>0.64</v>
+      </c>
+      <c r="C7">
+        <v>0.53</v>
+      </c>
+      <c r="D7">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>1.26</v>
+      </c>
+      <c r="C8">
+        <v>0.88</v>
+      </c>
+      <c r="D8">
+        <v>1.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F720CD-FE43-4D6D-8AF3-70AA0A3F8322}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>55</v>
+      </c>
+      <c r="B2">
+        <f>(E2+F2)/2</f>
+        <v>2.6</v>
+      </c>
+      <c r="E2">
+        <v>2.6</v>
+      </c>
+      <c r="F2">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B6" si="0">(E3+F3)/2</f>
+        <v>3.25</v>
+      </c>
+      <c r="E3">
+        <v>3.2</v>
+      </c>
+      <c r="F3">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F4">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="E5">
+        <v>4.2</v>
+      </c>
+      <c r="F5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5.15</v>
+      </c>
+      <c r="E6">
+        <v>4.5</v>
+      </c>
+      <c r="F6">
+        <v>5.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{751F3B92-9BB5-4E6F-AF71-A90700BDC792}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="85.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="75">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="60">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="60">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="60">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="60">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="90">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="75">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="75">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2069,9 +4089,9 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +4105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2100,7 +4120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>40</v>
       </c>
@@ -2115,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>45</v>
       </c>
@@ -2130,7 +4150,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>50</v>
       </c>
@@ -2145,7 +4165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>55</v>
       </c>
@@ -2160,7 +4180,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>60</v>
       </c>
@@ -2175,7 +4195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>65</v>
       </c>
@@ -2190,7 +4210,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>70</v>
       </c>
@@ -2205,7 +4225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>75</v>
       </c>
@@ -2220,7 +4240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>80</v>
       </c>
@@ -2249,9 +4269,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2265,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2280,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>30</v>
       </c>
@@ -2295,7 +4315,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>35</v>
       </c>
@@ -2310,7 +4330,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>40</v>
       </c>
@@ -2325,7 +4345,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>45</v>
       </c>
@@ -2340,7 +4360,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2355,7 +4375,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>55</v>
       </c>
@@ -2370,7 +4390,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>60</v>
       </c>
@@ -2385,7 +4405,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>65</v>
       </c>
@@ -2400,7 +4420,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>70</v>
       </c>
@@ -2428,9 +4448,9 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2444,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2459,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>10</v>
       </c>
@@ -2474,7 +4494,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>20</v>
       </c>
@@ -2489,7 +4509,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>30</v>
       </c>
@@ -2504,7 +4524,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>40</v>
       </c>
@@ -2519,7 +4539,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2534,7 +4554,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>60</v>
       </c>
@@ -2549,7 +4569,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>70</v>
       </c>
@@ -2564,7 +4584,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>80</v>
       </c>
@@ -2588,13 +4608,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DB9374-969E-4AE0-9577-ECF2243C35DA}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2623,7 +4643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>26</v>
       </c>
@@ -2638,7 +4658,7 @@
         <v>94.24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>27</v>
       </c>
@@ -2653,7 +4673,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>28</v>
       </c>
@@ -2668,7 +4688,7 @@
         <v>82.72</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>29</v>
       </c>
@@ -2683,7 +4703,7 @@
         <v>76.959999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>30</v>
       </c>
@@ -2698,7 +4718,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>31</v>
       </c>
@@ -2713,7 +4733,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>32</v>
       </c>
@@ -2728,7 +4748,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>33</v>
       </c>
@@ -2743,7 +4763,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>34</v>
       </c>
@@ -2758,7 +4778,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>35</v>
       </c>
@@ -2773,7 +4793,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>36</v>
       </c>
@@ -2788,7 +4808,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>37</v>
       </c>
@@ -2803,7 +4823,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>38</v>
       </c>
@@ -2818,7 +4838,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>39</v>
       </c>
@@ -2833,7 +4853,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>40</v>
       </c>
@@ -2848,7 +4868,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>41</v>
       </c>
@@ -2863,7 +4883,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>42</v>
       </c>
@@ -2878,7 +4898,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>43</v>
       </c>
@@ -2893,7 +4913,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>44</v>
       </c>
@@ -2908,7 +4928,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>45</v>
       </c>
@@ -2923,7 +4943,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>46</v>
       </c>
@@ -2938,7 +4958,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>47</v>
       </c>
@@ -2953,7 +4973,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>48</v>
       </c>
@@ -2968,7 +4988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>49</v>
       </c>
@@ -2983,7 +5003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>50</v>
       </c>
@@ -2998,7 +5018,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>51</v>
       </c>
@@ -3013,7 +5033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>52</v>
       </c>
@@ -3028,7 +5048,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>53</v>
       </c>
@@ -3043,7 +5063,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>54</v>
       </c>
@@ -3058,7 +5078,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>55</v>
       </c>
@@ -3073,7 +5093,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>56</v>
       </c>
@@ -3088,7 +5108,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>57</v>
       </c>
@@ -3103,7 +5123,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>58</v>
       </c>
@@ -3118,7 +5138,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>59</v>
       </c>
@@ -3133,7 +5153,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>60</v>
       </c>
@@ -3148,7 +5168,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>61</v>
       </c>
@@ -3163,7 +5183,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>62</v>
       </c>
@@ -3178,7 +5198,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>63</v>
       </c>
@@ -3193,7 +5213,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>64</v>
       </c>
@@ -3208,7 +5228,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>65</v>
       </c>
@@ -3223,7 +5243,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>66</v>
       </c>
@@ -3238,7 +5258,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>67</v>
       </c>
@@ -3253,7 +5273,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>68</v>
       </c>
@@ -3268,7 +5288,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>69</v>
       </c>
@@ -3283,7 +5303,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>70</v>
       </c>
@@ -3298,7 +5318,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>71</v>
       </c>
@@ -3313,7 +5333,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>72</v>
       </c>
@@ -3328,7 +5348,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>73</v>
       </c>
@@ -3343,7 +5363,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>74</v>
       </c>
@@ -3358,7 +5378,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>75</v>
       </c>
@@ -3373,7 +5393,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>76</v>
       </c>
@@ -3388,7 +5408,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>77</v>
       </c>
@@ -3403,7 +5423,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>78</v>
       </c>
@@ -3418,7 +5438,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>79</v>
       </c>
@@ -3433,7 +5453,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>80</v>
       </c>
@@ -3448,7 +5468,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58">
         <v>81</v>
       </c>
@@ -3463,7 +5483,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59">
         <v>82</v>
       </c>
@@ -3478,7 +5498,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60">
         <v>83</v>
       </c>
@@ -3493,7 +5513,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61">
         <v>84</v>
       </c>
@@ -3508,7 +5528,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6">
       <c r="A62">
         <v>85</v>
       </c>
@@ -3523,7 +5543,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6">
       <c r="A63">
         <v>86</v>
       </c>
@@ -3538,7 +5558,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6">
       <c r="A64">
         <v>87</v>
       </c>
@@ -3553,7 +5573,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>88</v>
       </c>
@@ -3568,7 +5588,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6">
       <c r="A66">
         <v>89</v>
       </c>
@@ -3583,7 +5603,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6">
       <c r="A67">
         <v>90</v>
       </c>
@@ -3607,13 +5627,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B767858E-1D81-4BEC-8CA2-6671D90F44A1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G14" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3621,7 +5641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3629,7 +5649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3637,7 +5657,7 @@
         <v>1.9522566000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3645,7 +5665,7 @@
         <v>6.8779950000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3660,19 +5680,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CB1E5E-487E-45BA-BD05-FEF5D2D49736}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -3686,7 +5708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3700,7 +5722,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -3714,7 +5736,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3728,7 +5750,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3739,7 +5761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3750,7 +5772,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3761,7 +5783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3772,7 +5794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3783,7 +5805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3797,7 +5819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3805,6 +5827,50 @@
         <v>3.8399999999999997E-2</v>
       </c>
       <c r="D11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0.3</v>
+      </c>
+      <c r="D15">
         <v>20</v>
       </c>
     </row>
@@ -3821,23 +5887,23 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>25</v>
       </c>
@@ -3852,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>26</v>
       </c>
@@ -3867,7 +5933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>27</v>
       </c>
@@ -3882,7 +5948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>28</v>
       </c>
@@ -3897,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>29</v>
       </c>
@@ -3912,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>30</v>
       </c>
@@ -3927,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>31</v>
       </c>
@@ -3942,7 +6008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>32</v>
       </c>
@@ -3957,7 +6023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>33</v>
       </c>
@@ -3972,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>34</v>
       </c>
@@ -3987,7 +6053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>35</v>
       </c>
@@ -4002,7 +6068,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>36</v>
       </c>
@@ -4017,7 +6083,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>37</v>
       </c>
@@ -4032,7 +6098,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>38</v>
       </c>
@@ -4047,7 +6113,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>39</v>
       </c>
@@ -4062,7 +6128,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>40</v>
       </c>
@@ -4077,7 +6143,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>41</v>
       </c>
@@ -4092,7 +6158,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>42</v>
       </c>
@@ -4107,7 +6173,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>43</v>
       </c>
@@ -4122,7 +6188,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>44</v>
       </c>
@@ -4137,7 +6203,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>45</v>
       </c>
@@ -4152,7 +6218,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>46</v>
       </c>
@@ -4167,7 +6233,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>47</v>
       </c>
@@ -4182,7 +6248,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>48</v>
       </c>
@@ -4197,7 +6263,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>49</v>
       </c>
@@ -4212,7 +6278,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>50</v>
       </c>
@@ -4227,7 +6293,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>51</v>
       </c>
@@ -4242,7 +6308,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>52</v>
       </c>
@@ -4257,7 +6323,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>53</v>
       </c>
@@ -4272,7 +6338,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>54</v>
       </c>
@@ -4287,7 +6353,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>55</v>
       </c>
@@ -4302,7 +6368,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>56</v>
       </c>
@@ -4317,7 +6383,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>57</v>
       </c>
@@ -4332,7 +6398,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>58</v>
       </c>
@@ -4347,7 +6413,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>59</v>
       </c>
@@ -4362,7 +6428,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>60</v>
       </c>
@@ -4377,7 +6443,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>61</v>
       </c>
@@ -4392,7 +6458,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>62</v>
       </c>
@@ -4407,7 +6473,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>63</v>
       </c>
@@ -4422,7 +6488,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41">
         <v>64</v>
       </c>
@@ -4437,7 +6503,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>65</v>
       </c>
@@ -4452,7 +6518,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>66</v>
       </c>
@@ -4467,7 +6533,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>67</v>
       </c>
@@ -4482,7 +6548,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>68</v>
       </c>
@@ -4497,7 +6563,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>69</v>
       </c>
@@ -4512,7 +6578,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47">
         <v>70</v>
       </c>
@@ -4527,7 +6593,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48">
         <v>71</v>
       </c>
@@ -4542,7 +6608,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>72</v>
       </c>
@@ -4557,7 +6623,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50">
         <v>73</v>
       </c>
@@ -4572,7 +6638,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51">
         <v>74</v>
       </c>
@@ -4587,7 +6653,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>75</v>
       </c>
@@ -4602,7 +6668,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>76</v>
       </c>
@@ -4617,7 +6683,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>77</v>
       </c>
@@ -4632,7 +6698,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>78</v>
       </c>
@@ -4647,7 +6713,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>79</v>
       </c>
@@ -4662,7 +6728,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>80</v>
       </c>

--- a/Data/model_inputs.xlsx
+++ b/Data/model_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_2868\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/briannalauren/Desktop/Columbia_RA/lynch_syndrome/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="664" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95F20CE9-E421-4C8A-8F84-AF30F381D13E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10DD5AC-FCA8-C247-B409-2F4D84D7B142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39765" yWindow="5775" windowWidth="14805" windowHeight="8025" firstSheet="22" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLH1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="MLH1_Adenoma" sheetId="14" r:id="rId13"/>
     <sheet name="MSH2_Adenoma" sheetId="15" r:id="rId14"/>
     <sheet name="MSH6_Adenoma" sheetId="16" r:id="rId15"/>
-    <sheet name="PSM2_Adenoma" sheetId="17" r:id="rId16"/>
+    <sheet name="PMS2_Adenoma" sheetId="17" r:id="rId16"/>
     <sheet name="MLH1_Adv_Adenoma" sheetId="18" r:id="rId17"/>
     <sheet name="MSH2_Adv_Adenoma" sheetId="19" r:id="rId18"/>
     <sheet name="MSH6_Adv_Adenoma" sheetId="20" r:id="rId19"/>
@@ -37,7 +37,7 @@
     <sheet name="Adv_Adenoma_to_CRC_Annual" sheetId="23" r:id="rId22"/>
     <sheet name="References" sheetId="12" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -93,12 +93,12 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={F75A720C-4BE0-4651-871F-F8F68C726A00}</author>
+    <author>tc={B97D3B4D-DE3D-1346-A586-6CCECA75CE9C}</author>
     <author>tc={08F73540-D660-4855-A57C-2E76F4BA498E}</author>
     <author>tc={79F5B330-6AD5-4ACA-8134-0A244E1A824B}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F75A720C-4BE0-4651-871F-F8F68C726A00}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{B97D3B4D-DE3D-1346-A586-6CCECA75CE9C}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,12 +132,12 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2A88D88A-051A-49EA-9761-C671DEFC0598}</author>
+    <author>tc={50E8B63C-3284-014F-AC2D-EC1284565A75}</author>
     <author>tc={D0AA4247-7DA2-4BAB-9543-5CEF61EF3191}</author>
     <author>tc={60C43CD2-73DE-45B1-9E6A-031A16FE7FF6}</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2A88D88A-051A-49EA-9761-C671DEFC0598}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{50E8B63C-3284-014F-AC2D-EC1284565A75}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -168,11 +168,27 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={D92B3FBB-182E-5E49-86F3-8BCB31873203}</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D92B3FBB-182E-5E49-86F3-8BCB31873203}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Combined
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="119">
-  <si>
-    <t>x</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="118">
   <si>
     <t>risk</t>
   </si>
@@ -408,9 +424,6 @@
     <t>stage IV death</t>
   </si>
   <si>
-    <t>Curve1</t>
-  </si>
-  <si>
     <t>Risk</t>
   </si>
   <si>
@@ -526,19 +539,28 @@
   </si>
   <si>
     <t>Schreiner, M. A., Weiss, D. G., &amp; Lieberman, D. A. (2010). Proximal and Large Hyperplastic and Nondysplastic Serrated Polyps Detected by Colonoscopy Are Associated With Neoplasia. Gastroenterology, 139(5), 1497–1502. https://doi.org/10.1053/j.gastro.2010.06.074</t>
+  </si>
+  <si>
+    <t>Cumul_prob</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -904,7 +926,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" dT="2019-07-10T15:21:35.79" personId="{9FD2D583-5063-46D4-871C-0EDD72663D46}" id="{F75A720C-4BE0-4651-871F-F8F68C726A00}">
+  <threadedComment ref="B1" dT="2019-07-10T15:05:04.87" personId="{9FD2D583-5063-46D4-871C-0EDD72663D46}" id="{B97D3B4D-DE3D-1346-A586-6CCECA75CE9C}">
     <text xml:space="preserve">Combined
 </text>
   </threadedComment>
@@ -921,7 +943,7 @@
 
 <file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" dT="2019-07-10T15:48:51.74" personId="{9FD2D583-5063-46D4-871C-0EDD72663D46}" id="{2A88D88A-051A-49EA-9761-C671DEFC0598}">
+  <threadedComment ref="B1" dT="2019-07-10T15:05:04.87" personId="{9FD2D583-5063-46D4-871C-0EDD72663D46}" id="{50E8B63C-3284-014F-AC2D-EC1284565A75}">
     <text xml:space="preserve">Combined
 </text>
   </threadedComment>
@@ -936,37 +958,46 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B1" dT="2019-07-10T15:05:04.87" personId="{9FD2D583-5063-46D4-871C-0EDD72663D46}" id="{D92B3FBB-182E-5E49-86F3-8BCB31873203}">
+    <text xml:space="preserve">Combined
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
@@ -988,7 +1019,7 @@
         <v>2.2395</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>35</v>
       </c>
@@ -1012,7 +1043,7 @@
         <v>5.2595000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40</v>
       </c>
@@ -1034,7 +1065,7 @@
         <v>10.680999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>45</v>
       </c>
@@ -1058,7 +1089,7 @@
         <v>19.382999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1080,7 +1111,7 @@
         <v>33.244</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>55</v>
       </c>
@@ -1104,7 +1135,7 @@
         <v>43.409500000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1126,7 +1157,7 @@
         <v>56.399000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>65</v>
       </c>
@@ -1150,7 +1181,7 @@
         <v>65.188999999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>70</v>
       </c>
@@ -1184,26 +1215,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1220,7 +1251,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1237,7 +1268,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1254,7 +1285,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1271,7 +1302,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1288,7 +1319,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1318,55 +1349,55 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>38</v>
       </c>
       <c r="B2" s="2">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2">
         <v>0.68</v>
@@ -1385,45 +1416,45 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>45</v>
       </c>
       <c r="B2">
         <v>979.14</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>1203</v>
@@ -1432,202 +1463,202 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>15567.97</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>6021.21</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>383.21</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>6021.21</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>30673</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <v>3347.95</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10">
         <v>3150.37</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>4413.8100000000004</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12">
         <v>13367.67</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>45409.31</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>60945.99</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15">
         <v>73974.720000000001</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D15">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16">
         <v>96295.01</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D16">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>4976.47</v>
       </c>
       <c r="D17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>75</v>
       </c>
       <c r="B18">
         <f>63809*1.123</f>
@@ -1637,9 +1668,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <f>63555*1.123</f>
@@ -1649,9 +1680,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20">
         <f>67041*1.123</f>
@@ -1661,9 +1692,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21">
         <f>88368*1.123</f>
@@ -1683,20 +1714,20 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -1704,7 +1735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
@@ -1712,7 +1743,7 @@
         <v>0.502</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41.416800000000002</v>
       </c>
@@ -1720,7 +1751,7 @@
         <v>2.331</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42.0901</v>
       </c>
@@ -1728,7 +1759,7 @@
         <v>4.4260000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>42.763399999999997</v>
       </c>
@@ -1736,7 +1767,7 @@
         <v>6.5209999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>43.260100000000001</v>
       </c>
@@ -1744,7 +1775,7 @@
         <v>9.6850000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>44.039900000000003</v>
       </c>
@@ -1752,7 +1783,7 @@
         <v>12.837</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>44.925699999999999</v>
       </c>
@@ -1760,7 +1791,7 @@
         <v>15.189</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>45.563800000000001</v>
       </c>
@@ -1768,7 +1799,7 @@
         <v>17.815999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46.308399999999999</v>
       </c>
@@ -1776,7 +1807,7 @@
         <v>21.234000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>47.371400000000001</v>
       </c>
@@ -1784,7 +1815,7 @@
         <v>24.11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>48.009399999999999</v>
       </c>
@@ -1792,7 +1823,7 @@
         <v>26.472000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>48.930700000000002</v>
       </c>
@@ -1800,7 +1831,7 @@
         <v>29.353000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>49.887099999999997</v>
       </c>
@@ -1808,7 +1839,7 @@
         <v>31.172000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50.843699999999998</v>
       </c>
@@ -1816,7 +1847,7 @@
         <v>33.521000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>51.517600000000002</v>
       </c>
@@ -1824,7 +1855,7 @@
         <v>37.207999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>52.368200000000002</v>
       </c>
@@ -1832,7 +1863,7 @@
         <v>40.091000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>53.112099999999998</v>
       </c>
@@ -1840,7 +1871,7 @@
         <v>41.652999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>54.068399999999997</v>
       </c>
@@ -1848,7 +1879,7 @@
         <v>43.207000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>54.9893</v>
       </c>
@@ -1856,7 +1887,7 @@
         <v>44.762</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>55.945599999999999</v>
       </c>
@@ -1864,7 +1895,7 @@
         <v>46.314999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>56.547899999999998</v>
       </c>
@@ -1872,7 +1903,7 @@
         <v>47.883000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>57.3628</v>
       </c>
@@ -1880,7 +1911,7 @@
         <v>49.972000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>58.000799999999998</v>
       </c>
@@ -1888,7 +1919,7 @@
         <v>52.334000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>58.7089</v>
       </c>
@@ -1896,7 +1927,7 @@
         <v>52.570999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>59.169899999999998</v>
       </c>
@@ -1904,7 +1935,7 @@
         <v>54.94</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>59.630600000000001</v>
       </c>
@@ -1912,7 +1943,7 @@
         <v>56.512999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>60.020699999999998</v>
       </c>
@@ -1929,21 +1960,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC49EAA-CB75-4036-AC07-544E749DC381}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -1951,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40.6372</v>
       </c>
@@ -1959,7 +1990,7 @@
         <v>1.0469999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41.274299999999997</v>
       </c>
@@ -1967,7 +1998,7 @@
         <v>4.4870000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42.194699999999997</v>
       </c>
@@ -1975,7 +2006,7 @@
         <v>10.048</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>43.115000000000002</v>
       </c>
@@ -1983,7 +2014,7 @@
         <v>14.279</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>43.858400000000003</v>
       </c>
@@ -1991,7 +2022,7 @@
         <v>16.919</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>44.955800000000004</v>
       </c>
@@ -1999,7 +2030,7 @@
         <v>21.943000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>45.911499999999997</v>
       </c>
@@ -2007,7 +2038,7 @@
         <v>25.109000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>46.654899999999998</v>
       </c>
@@ -2015,7 +2046,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>47.327399999999997</v>
       </c>
@@ -2023,7 +2054,7 @@
         <v>31.986000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>48.247799999999998</v>
       </c>
@@ -2031,7 +2062,7 @@
         <v>36.482999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>49.522100000000002</v>
       </c>
@@ -2039,7 +2070,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50.477899999999998</v>
       </c>
@@ -2047,7 +2078,7 @@
         <v>45.466000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>51.1858</v>
       </c>
@@ -2055,7 +2086,7 @@
         <v>48.372999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>52.318600000000004</v>
       </c>
@@ -2063,7 +2094,7 @@
         <v>51.533999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>53.309699999999999</v>
       </c>
@@ -2071,7 +2102,7 @@
         <v>54.965000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>54.265500000000003</v>
       </c>
@@ -2079,7 +2110,7 @@
         <v>57.865000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>55.221200000000003</v>
       </c>
@@ -2087,7 +2118,7 @@
         <v>58.904000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>56.247799999999998</v>
       </c>
@@ -2095,7 +2126,7 @@
         <v>60.472000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>57.168100000000003</v>
       </c>
@@ -2103,7 +2134,7 @@
         <v>63.905000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>57.946899999999999</v>
       </c>
@@ -2111,7 +2142,7 @@
         <v>67.075999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>59.044199999999996</v>
       </c>
@@ -2119,7 +2150,7 @@
         <v>67.313000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>59.787599999999998</v>
       </c>
@@ -2137,20 +2168,20 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2158,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>41.057099999999998</v>
       </c>
@@ -2166,7 +2197,7 @@
         <v>1.577</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41.865400000000001</v>
       </c>
@@ -2174,7 +2205,7 @@
         <v>5.8109999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42.567700000000002</v>
       </c>
@@ -2182,7 +2213,7 @@
         <v>10.311</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>43.234499999999997</v>
       </c>
@@ -2190,7 +2221,7 @@
         <v>15.076000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>43.692500000000003</v>
       </c>
@@ -2198,7 +2229,7 @@
         <v>15.866</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>44.149000000000001</v>
       </c>
@@ -2206,7 +2237,7 @@
         <v>18.777999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>44.783000000000001</v>
       </c>
@@ -2214,7 +2245,7 @@
         <v>20.096</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>45.732399999999998</v>
       </c>
@@ -2222,7 +2253,7 @@
         <v>24.327000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46.609900000000003</v>
       </c>
@@ -2230,7 +2261,7 @@
         <v>30.416</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>47.526499999999999</v>
       </c>
@@ -2238,7 +2269,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>48.408000000000001</v>
       </c>
@@ -2246,7 +2277,7 @@
         <v>31.719000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>49.217599999999997</v>
       </c>
@@ -2254,7 +2285,7 @@
         <v>34.094999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50.025100000000002</v>
       </c>
@@ -2262,7 +2293,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50.799599999999998</v>
       </c>
@@ -2270,7 +2301,7 @@
         <v>41.500999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>51.821800000000003</v>
       </c>
@@ -2278,7 +2309,7 @@
         <v>42.548999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>52.383000000000003</v>
       </c>
@@ -2286,7 +2317,7 @@
         <v>47.051000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>53.192799999999998</v>
       </c>
@@ -2294,7 +2325,7 @@
         <v>49.161999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>54.178100000000001</v>
       </c>
@@ -2302,7 +2333,7 @@
         <v>52.597000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>55.304200000000002</v>
       </c>
@@ -2310,7 +2341,7 @@
         <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56.75</v>
       </c>
@@ -2318,7 +2349,7 @@
         <v>56.807000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>57.949199999999998</v>
       </c>
@@ -2326,7 +2357,7 @@
         <v>57.055999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>58.757300000000001</v>
       </c>
@@ -2334,7 +2365,7 @@
         <v>61.555</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>59.568399999999997</v>
       </c>
@@ -2352,20 +2383,20 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2373,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>41.057099999999998</v>
       </c>
@@ -2381,7 +2412,7 @@
         <v>1.577</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41.865400000000001</v>
       </c>
@@ -2389,7 +2420,7 @@
         <v>5.8109999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42.567700000000002</v>
       </c>
@@ -2397,7 +2428,7 @@
         <v>10.311</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>43.234499999999997</v>
       </c>
@@ -2405,7 +2436,7 @@
         <v>15.076000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>43.692500000000003</v>
       </c>
@@ -2413,7 +2444,7 @@
         <v>15.866</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>44.149000000000001</v>
       </c>
@@ -2421,7 +2452,7 @@
         <v>18.777999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>44.783000000000001</v>
       </c>
@@ -2429,7 +2460,7 @@
         <v>20.096</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>45.732399999999998</v>
       </c>
@@ -2437,7 +2468,7 @@
         <v>24.327000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>46.609900000000003</v>
       </c>
@@ -2445,7 +2476,7 @@
         <v>30.416</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>47.526499999999999</v>
       </c>
@@ -2453,7 +2484,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>48.408000000000001</v>
       </c>
@@ -2461,7 +2492,7 @@
         <v>31.719000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>49.217599999999997</v>
       </c>
@@ -2469,7 +2500,7 @@
         <v>34.094999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>50.025100000000002</v>
       </c>
@@ -2477,7 +2508,7 @@
         <v>39.39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>50.799599999999998</v>
       </c>
@@ -2485,7 +2516,7 @@
         <v>41.500999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>51.821800000000003</v>
       </c>
@@ -2493,7 +2524,7 @@
         <v>42.548999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>52.383000000000003</v>
       </c>
@@ -2501,7 +2532,7 @@
         <v>47.051000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>53.192799999999998</v>
       </c>
@@ -2509,7 +2540,7 @@
         <v>49.161999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>54.178100000000001</v>
       </c>
@@ -2517,7 +2548,7 @@
         <v>52.597000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>55.304200000000002</v>
       </c>
@@ -2525,7 +2556,7 @@
         <v>56.295999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>56.75</v>
       </c>
@@ -2533,7 +2564,7 @@
         <v>56.807000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>57.949199999999998</v>
       </c>
@@ -2541,7 +2572,7 @@
         <v>57.055999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>58.757300000000001</v>
       </c>
@@ -2549,7 +2580,7 @@
         <v>61.555</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>59.568399999999997</v>
       </c>
@@ -2566,21 +2597,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912360B5-4AF5-49C8-AF80-8191012ABA96}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2588,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
@@ -2596,7 +2627,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>43.604199999999999</v>
       </c>
@@ -2604,7 +2635,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>44.734999999999999</v>
       </c>
@@ -2612,7 +2643,7 @@
         <v>2.9329999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>45.971699999999998</v>
       </c>
@@ -2620,7 +2651,7 @@
         <v>4.5330000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>47.385199999999998</v>
       </c>
@@ -2628,7 +2659,7 @@
         <v>5.867</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>48.727899999999998</v>
       </c>
@@ -2636,7 +2667,7 @@
         <v>6.6669999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>49.858699999999999</v>
       </c>
@@ -2644,7 +2675,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>51.095399999999998</v>
       </c>
@@ -2652,7 +2683,7 @@
         <v>9.3330000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>52.296799999999998</v>
       </c>
@@ -2660,7 +2691,7 @@
         <v>10.933</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>53.427599999999998</v>
       </c>
@@ -2668,7 +2699,7 @@
         <v>10.933</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>54.593600000000002</v>
       </c>
@@ -2676,7 +2707,7 @@
         <v>11.467000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>55.759700000000002</v>
       </c>
@@ -2684,7 +2715,7 @@
         <v>12.266999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>56.572400000000002</v>
       </c>
@@ -2692,7 +2723,7 @@
         <v>12.532999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>57.597200000000001</v>
       </c>
@@ -2700,7 +2731,7 @@
         <v>14.132999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>58.303899999999999</v>
       </c>
@@ -2708,7 +2739,7 @@
         <v>15.467000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>59.258000000000003</v>
       </c>
@@ -2716,7 +2747,7 @@
         <v>17.067</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>59.858699999999999</v>
       </c>
@@ -2733,21 +2764,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7E6EEE-3A45-416C-8BA6-C14AA5B38571}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2755,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40.918399999999998</v>
       </c>
@@ -2763,7 +2794,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41.73</v>
       </c>
@@ -2771,7 +2802,7 @@
         <v>2.0760000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42.647199999999998</v>
       </c>
@@ -2779,7 +2810,7 @@
         <v>4.1740000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>43.494399999999999</v>
       </c>
@@ -2787,7 +2818,7 @@
         <v>5.4779999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>44.341900000000003</v>
       </c>
@@ -2795,7 +2826,7 @@
         <v>6.2510000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>45.364899999999999</v>
       </c>
@@ -2803,7 +2834,7 @@
         <v>8.6110000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>46.424100000000003</v>
       </c>
@@ -2811,7 +2842,7 @@
         <v>9.9090000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>47.165999999999997</v>
       </c>
@@ -2819,7 +2850,7 @@
         <v>10.154999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48.0473</v>
       </c>
@@ -2827,7 +2858,7 @@
         <v>13.048999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>48.647100000000002</v>
       </c>
@@ -2835,7 +2866,7 @@
         <v>14.359</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>49.493699999999997</v>
       </c>
@@ -2843,7 +2874,7 @@
         <v>16.459</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>50.587600000000002</v>
       </c>
@@ -2851,7 +2882,7 @@
         <v>18.552</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>51.646599999999999</v>
       </c>
@@ -2859,7 +2890,7 @@
         <v>20.114999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>52.600299999999997</v>
       </c>
@@ -2867,7 +2898,7 @@
         <v>20.620999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>53.5884</v>
       </c>
@@ -2875,7 +2906,7 @@
         <v>22.451000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>54.718000000000004</v>
       </c>
@@ -2883,7 +2914,7 @@
         <v>24.013000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>55.3887</v>
       </c>
@@ -2891,7 +2922,7 @@
         <v>25.056000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>56.024299999999997</v>
       </c>
@@ -2899,7 +2930,7 @@
         <v>25.57</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>56.906799999999997</v>
       </c>
@@ -2907,7 +2938,7 @@
         <v>26.872</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>57.611699999999999</v>
       </c>
@@ -2915,7 +2946,7 @@
         <v>29.506</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>58.140999999999998</v>
       </c>
@@ -2923,7 +2954,7 @@
         <v>30.553000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>58.706299999999999</v>
       </c>
@@ -2931,7 +2962,7 @@
         <v>30.538</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>59.306899999999999</v>
       </c>
@@ -2939,7 +2970,7 @@
         <v>30.788</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>59.906999999999996</v>
       </c>
@@ -2957,20 +2988,20 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -2978,7 +3009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
@@ -2986,7 +3017,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41.667299999999997</v>
       </c>
@@ -2994,7 +3025,7 @@
         <v>1.7949999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42.4833</v>
       </c>
@@ -3002,7 +3033,7 @@
         <v>2.8260000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>43.192599999999999</v>
       </c>
@@ -3010,7 +3041,7 @@
         <v>3.0640000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>44.399000000000001</v>
       </c>
@@ -3018,7 +3049,7 @@
         <v>5.1440000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>45.392400000000002</v>
       </c>
@@ -3026,7 +3057,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>46.385399999999997</v>
       </c>
@@ -3034,7 +3065,7 @@
         <v>6.9260000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>47.591200000000001</v>
       </c>
@@ -3042,7 +3073,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48.158900000000003</v>
       </c>
@@ -3050,7 +3081,7 @@
         <v>8.1850000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>49.5777</v>
       </c>
@@ -3058,7 +3089,7 @@
         <v>9.1920000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50.9253</v>
       </c>
@@ -3066,7 +3097,7 @@
         <v>9.4049999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>52.343699999999998</v>
       </c>
@@ -3074,7 +3105,7 @@
         <v>9.3480000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>53.443100000000001</v>
       </c>
@@ -3082,7 +3113,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>54.578499999999998</v>
       </c>
@@ -3090,7 +3121,7 @@
         <v>11.385999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>55.714199999999998</v>
       </c>
@@ -3098,7 +3129,7 @@
         <v>14.000999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>56.849299999999999</v>
       </c>
@@ -3106,7 +3137,7 @@
         <v>15.019</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>57.665100000000002</v>
       </c>
@@ -3114,7 +3145,7 @@
         <v>15.519</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>58.338799999999999</v>
       </c>
@@ -3122,7 +3153,7 @@
         <v>15.492000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>59.119</v>
       </c>
@@ -3130,7 +3161,7 @@
         <v>15.461</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>59.828200000000002</v>
       </c>
@@ -3148,32 +3179,32 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B10"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>30</v>
       </c>
@@ -3192,7 +3223,7 @@
         <v>1.2055</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>35</v>
       </c>
@@ -3211,7 +3242,7 @@
         <v>2.5874999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40</v>
       </c>
@@ -3233,7 +3264,7 @@
         <v>5.7714999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>45</v>
       </c>
@@ -3255,7 +3286,7 @@
         <v>10.153500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>50</v>
       </c>
@@ -3275,7 +3306,7 @@
         <v>12.841000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>55</v>
       </c>
@@ -3297,7 +3328,7 @@
         <v>22.8645</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -3319,7 +3350,7 @@
         <v>30.052</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>65</v>
       </c>
@@ -3341,7 +3372,7 @@
         <v>37.547499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>70</v>
       </c>
@@ -3374,20 +3405,20 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -3395,7 +3426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
@@ -3403,7 +3434,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>41.667299999999997</v>
       </c>
@@ -3411,7 +3442,7 @@
         <v>1.7949999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>42.4833</v>
       </c>
@@ -3419,7 +3450,7 @@
         <v>2.8260000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>43.192599999999999</v>
       </c>
@@ -3427,7 +3458,7 @@
         <v>3.0640000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>44.399000000000001</v>
       </c>
@@ -3435,7 +3466,7 @@
         <v>5.1440000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>45.392400000000002</v>
       </c>
@@ -3443,7 +3474,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>46.385399999999997</v>
       </c>
@@ -3451,7 +3482,7 @@
         <v>6.9260000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>47.591200000000001</v>
       </c>
@@ -3459,7 +3490,7 @@
         <v>7.1440000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>48.158900000000003</v>
       </c>
@@ -3467,7 +3498,7 @@
         <v>8.1850000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>49.5777</v>
       </c>
@@ -3475,7 +3506,7 @@
         <v>9.1920000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>50.9253</v>
       </c>
@@ -3483,7 +3514,7 @@
         <v>9.4049999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>52.343699999999998</v>
       </c>
@@ -3491,7 +3522,7 @@
         <v>9.3480000000000008</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>53.443100000000001</v>
       </c>
@@ -3499,7 +3530,7 @@
         <v>9.57</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>54.578499999999998</v>
       </c>
@@ -3507,7 +3538,7 @@
         <v>11.385999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>55.714199999999998</v>
       </c>
@@ -3515,7 +3546,7 @@
         <v>14.000999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>56.849299999999999</v>
       </c>
@@ -3523,7 +3554,7 @@
         <v>15.019</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>57.665100000000002</v>
       </c>
@@ -3531,7 +3562,7 @@
         <v>15.519</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>58.338799999999999</v>
       </c>
@@ -3539,7 +3570,7 @@
         <v>15.492000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>59.119</v>
       </c>
@@ -3547,7 +3578,7 @@
         <v>15.461</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>59.828200000000002</v>
       </c>
@@ -3568,23 +3599,23 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -3598,7 +3629,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30</v>
       </c>
@@ -3612,7 +3643,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40</v>
       </c>
@@ -3626,7 +3657,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -3640,7 +3671,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>60</v>
       </c>
@@ -3654,7 +3685,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>70</v>
       </c>
@@ -3668,7 +3699,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>80</v>
       </c>
@@ -3691,27 +3722,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F720CD-FE43-4D6D-8AF3-70AA0A3F8322}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>55</v>
       </c>
@@ -3726,7 +3757,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>60</v>
       </c>
@@ -3741,7 +3772,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>65</v>
       </c>
@@ -3756,7 +3787,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>70</v>
       </c>
@@ -3771,7 +3802,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>75</v>
       </c>
@@ -3799,281 +3830,281 @@
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="85.28515625" customWidth="1"/>
+    <col min="2" max="2" width="85.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="60">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="60">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="75">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="60">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="60">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="60">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="60">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="75">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="90">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="60">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="75">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="60">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="60">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4086,26 +4117,26 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -4120,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
@@ -4135,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>45</v>
       </c>
@@ -4150,7 +4181,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>50</v>
       </c>
@@ -4165,7 +4196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>55</v>
       </c>
@@ -4180,7 +4211,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>60</v>
       </c>
@@ -4195,7 +4226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>65</v>
       </c>
@@ -4210,7 +4241,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -4225,7 +4256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>75</v>
       </c>
@@ -4240,7 +4271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>80</v>
       </c>
@@ -4262,30 +4293,30 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C41ADB-27A3-4C80-A110-C0CC37B23962}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C41ADB-27A3-4C80-A110-C0CC37B23962}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -4300,7 +4331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30</v>
       </c>
@@ -4315,7 +4346,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>35</v>
       </c>
@@ -4330,7 +4361,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>40</v>
       </c>
@@ -4345,7 +4376,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>45</v>
       </c>
@@ -4360,7 +4391,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -4375,7 +4406,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>55</v>
       </c>
@@ -4390,7 +4421,7 @@
         <v>2.83</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>60</v>
       </c>
@@ -4405,7 +4436,7 @@
         <v>4.74</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>65</v>
       </c>
@@ -4420,7 +4451,7 @@
         <v>7.65</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>70</v>
       </c>
@@ -4437,6 +4468,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4448,23 +4480,23 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4479,7 +4511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>10</v>
       </c>
@@ -4494,7 +4526,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -4509,7 +4541,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30</v>
       </c>
@@ -4524,7 +4556,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>40</v>
       </c>
@@ -4539,7 +4571,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>50</v>
       </c>
@@ -4554,7 +4586,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>60</v>
       </c>
@@ -4569,7 +4601,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>70</v>
       </c>
@@ -4584,7 +4616,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>80</v>
       </c>
@@ -4612,23 +4644,23 @@
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -4643,7 +4675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>26</v>
       </c>
@@ -4658,7 +4690,7 @@
         <v>94.24</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27</v>
       </c>
@@ -4673,7 +4705,7 @@
         <v>88.48</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>28</v>
       </c>
@@ -4688,7 +4720,7 @@
         <v>82.72</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>29</v>
       </c>
@@ -4703,7 +4735,7 @@
         <v>76.959999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -4718,7 +4750,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
@@ -4733,7 +4765,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32</v>
       </c>
@@ -4748,7 +4780,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>33</v>
       </c>
@@ -4763,7 +4795,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>34</v>
       </c>
@@ -4778,7 +4810,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35</v>
       </c>
@@ -4793,7 +4825,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36</v>
       </c>
@@ -4808,7 +4840,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>37</v>
       </c>
@@ -4823,7 +4855,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38</v>
       </c>
@@ -4838,7 +4870,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>39</v>
       </c>
@@ -4853,7 +4885,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40</v>
       </c>
@@ -4868,7 +4900,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>41</v>
       </c>
@@ -4883,7 +4915,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>42</v>
       </c>
@@ -4898,7 +4930,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>43</v>
       </c>
@@ -4913,7 +4945,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>44</v>
       </c>
@@ -4928,7 +4960,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>45</v>
       </c>
@@ -4943,7 +4975,7 @@
         <v>71.2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>46</v>
       </c>
@@ -4958,7 +4990,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>47</v>
       </c>
@@ -4973,7 +5005,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>48</v>
       </c>
@@ -4988,7 +5020,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>49</v>
       </c>
@@ -5003,7 +5035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50</v>
       </c>
@@ -5018,7 +5050,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>51</v>
       </c>
@@ -5033,7 +5065,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>52</v>
       </c>
@@ -5048,7 +5080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>53</v>
       </c>
@@ -5063,7 +5095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>54</v>
       </c>
@@ -5078,7 +5110,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>55</v>
       </c>
@@ -5093,7 +5125,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>56</v>
       </c>
@@ -5108,7 +5140,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>57</v>
       </c>
@@ -5123,7 +5155,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>58</v>
       </c>
@@ -5138,7 +5170,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>59</v>
       </c>
@@ -5153,7 +5185,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>60</v>
       </c>
@@ -5168,7 +5200,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>61</v>
       </c>
@@ -5183,7 +5215,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>62</v>
       </c>
@@ -5198,7 +5230,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>63</v>
       </c>
@@ -5213,7 +5245,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>64</v>
       </c>
@@ -5228,7 +5260,7 @@
         <v>68.8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>65</v>
       </c>
@@ -5243,7 +5275,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>66</v>
       </c>
@@ -5258,7 +5290,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>67</v>
       </c>
@@ -5273,7 +5305,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>68</v>
       </c>
@@ -5288,7 +5320,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>69</v>
       </c>
@@ -5303,7 +5335,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>70</v>
       </c>
@@ -5318,7 +5350,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>71</v>
       </c>
@@ -5333,7 +5365,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>72</v>
       </c>
@@ -5348,7 +5380,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>73</v>
       </c>
@@ -5363,7 +5395,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>74</v>
       </c>
@@ -5378,7 +5410,7 @@
         <v>68.400000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>75</v>
       </c>
@@ -5393,7 +5425,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>76</v>
       </c>
@@ -5408,7 +5440,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>77</v>
       </c>
@@ -5423,7 +5455,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>78</v>
       </c>
@@ -5438,7 +5470,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>79</v>
       </c>
@@ -5453,7 +5485,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>80</v>
       </c>
@@ -5468,7 +5500,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>81</v>
       </c>
@@ -5483,7 +5515,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>82</v>
       </c>
@@ -5498,7 +5530,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>83</v>
       </c>
@@ -5513,7 +5545,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>84</v>
       </c>
@@ -5528,7 +5560,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>85</v>
       </c>
@@ -5543,7 +5575,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>86</v>
       </c>
@@ -5558,7 +5590,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>87</v>
       </c>
@@ -5573,7 +5605,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>88</v>
       </c>
@@ -5588,7 +5620,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>89</v>
       </c>
@@ -5603,7 +5635,7 @@
         <v>55.7</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>90</v>
       </c>
@@ -5627,21 +5659,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B767858E-1D81-4BEC-8CA2-6671D90F44A1}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5649,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5657,7 +5689,7 @@
         <v>1.9522566000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5665,7 +5697,7 @@
         <v>6.8779950000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5686,73 +5718,73 @@
       <selection activeCell="D11" sqref="D11:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>12</v>
       </c>
       <c r="B2">
         <v>0.95</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0.95</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>0.76</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -5761,9 +5793,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>0.88</v>
@@ -5772,9 +5804,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>0.82</v>
@@ -5783,9 +5815,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <v>0.76</v>
@@ -5794,9 +5826,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <v>0.3</v>
@@ -5805,23 +5837,23 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11">
         <v>3.8399999999999997E-2</v>
@@ -5830,9 +5862,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.3</v>
@@ -5841,9 +5873,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.3</v>
@@ -5852,9 +5884,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14">
         <v>0.3</v>
@@ -5863,9 +5895,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>0.3</v>
@@ -5887,23 +5919,23 @@
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>25</v>
       </c>
@@ -5918,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>26</v>
       </c>
@@ -5933,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>27</v>
       </c>
@@ -5948,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>28</v>
       </c>
@@ -5963,7 +5995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>29</v>
       </c>
@@ -5978,7 +6010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>30</v>
       </c>
@@ -5993,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>31</v>
       </c>
@@ -6008,7 +6040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32</v>
       </c>
@@ -6023,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>33</v>
       </c>
@@ -6038,7 +6070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>34</v>
       </c>
@@ -6053,7 +6085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35</v>
       </c>
@@ -6068,7 +6100,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>36</v>
       </c>
@@ -6083,7 +6115,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>37</v>
       </c>
@@ -6098,7 +6130,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>38</v>
       </c>
@@ -6113,7 +6145,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>39</v>
       </c>
@@ -6128,7 +6160,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>40</v>
       </c>
@@ -6143,7 +6175,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>41</v>
       </c>
@@ -6158,7 +6190,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>42</v>
       </c>
@@ -6173,7 +6205,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>43</v>
       </c>
@@ -6188,7 +6220,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>44</v>
       </c>
@@ -6203,7 +6235,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>45</v>
       </c>
@@ -6218,7 +6250,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>46</v>
       </c>
@@ -6233,7 +6265,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>47</v>
       </c>
@@ -6248,7 +6280,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>48</v>
       </c>
@@ -6263,7 +6295,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>49</v>
       </c>
@@ -6278,7 +6310,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>50</v>
       </c>
@@ -6293,7 +6325,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>51</v>
       </c>
@@ -6308,7 +6340,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>52</v>
       </c>
@@ -6323,7 +6355,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>53</v>
       </c>
@@ -6338,7 +6370,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>54</v>
       </c>
@@ -6353,7 +6385,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>55</v>
       </c>
@@ -6368,7 +6400,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>56</v>
       </c>
@@ -6383,7 +6415,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>57</v>
       </c>
@@ -6398,7 +6430,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>58</v>
       </c>
@@ -6413,7 +6445,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>59</v>
       </c>
@@ -6428,7 +6460,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>60</v>
       </c>
@@ -6443,7 +6475,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>61</v>
       </c>
@@ -6458,7 +6490,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>62</v>
       </c>
@@ -6473,7 +6505,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>63</v>
       </c>
@@ -6488,7 +6520,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>64</v>
       </c>
@@ -6503,7 +6535,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>65</v>
       </c>
@@ -6518,7 +6550,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>66</v>
       </c>
@@ -6533,7 +6565,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>67</v>
       </c>
@@ -6548,7 +6580,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>68</v>
       </c>
@@ -6563,7 +6595,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>69</v>
       </c>
@@ -6578,7 +6610,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>70</v>
       </c>
@@ -6593,7 +6625,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>71</v>
       </c>
@@ -6608,7 +6640,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>72</v>
       </c>
@@ -6623,7 +6655,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>73</v>
       </c>
@@ -6638,7 +6670,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>74</v>
       </c>
@@ -6653,7 +6685,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>75</v>
       </c>
@@ -6668,7 +6700,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>76</v>
       </c>
@@ -6683,7 +6715,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>77</v>
       </c>
@@ -6698,7 +6730,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>78</v>
       </c>
@@ -6713,7 +6745,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>79</v>
       </c>
@@ -6728,7 +6760,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>80</v>
       </c>

--- a/Data/model_inputs.xlsx
+++ b/Data/model_inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/briannalauren/Desktop/Columbia_RA/lynch_syndrome/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10DD5AC-FCA8-C247-B409-2F4D84D7B142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277FE499-ACB9-174F-93D1-C6ACD68F8FC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" firstSheet="15" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MLH1" sheetId="1" r:id="rId1"/>
@@ -548,19 +548,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -971,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -1714,7 +1708,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1732,7 +1726,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1961,7 +1956,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1979,7 +1974,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2168,7 +2164,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2186,7 +2182,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2383,7 +2380,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2401,7 +2398,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2598,7 +2596,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2616,7 +2614,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2765,7 +2764,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2783,7 +2782,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2988,7 +2988,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3006,7 +3006,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3405,7 +3406,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3423,7 +3424,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -3595,8 +3597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38CCD98A-C0EB-4C6C-9836-93985E235FAD}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4117,10 +4119,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4141,8 +4146,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(E2,F2)</f>
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4297,7 +4302,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4321,8 +4326,8 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <f>AVERAGE(E2,F2)</f>
-        <v>0</v>
+        <f>0.0000001</f>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="E2">
         <v>0</v>
